--- a/IQCM/DataSource/Homologación.xlsx
+++ b/IQCM/DataSource/Homologación.xlsx
@@ -1,40 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgomeza\Documents\Ranorex\RanorexStudio Projects\CuentasMedicas_Sanitas\DataSource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RanorexProyectos\CuentasMedicas2_Sanitas\IQCM\DataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B4E62E-8C02-434A-853C-75588EC26DC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA450C72-9AD8-47D0-B2E7-D7C985AAA9B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D2253A6-DF56-4104-B840-9CA851ABCA36}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9D2253A6-DF56-4104-B840-9CA851ABCA36}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Usuario" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>CodServicio</t>
   </si>
@@ -46,6 +38,12 @@
   </si>
   <si>
     <t>CodServicioHomologo</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>PruebasAuto60</t>
   </si>
 </sst>
 </file>
@@ -419,7 +417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECAB904E-7836-450B-A959-207F60968E7E}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -455,4 +453,29 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670B4316-ED62-4149-B7FC-B62E9D1DAF3B}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>